--- a/Excel/english.xlsx
+++ b/Excel/english.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishalsingh/Desktop/textcomp/comp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gauravsaini/Desktop/QBOT2/qbot/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AB84A9-8027-9D4F-9E79-2CD96BD4A1CC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F51F83A-DE6D-8849-804D-635E00152BCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{25DC19BB-6827-234B-8CA9-87E0AE47DF55}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <t>BEGINS NOW™</t>
   </si>
   <si>
-    <t>PURE LIFE</t>
+    <t>PURE LIF</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A2:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
